--- a/manual.xlsx
+++ b/manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\skripsi\project\metode-tfidf-jaccard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F35605-BB71-4D45-B2D0-624B0C75D744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166BD9A2-E6DE-4F8A-8E2F-738948D53163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FC24E5C5-88E4-4DC3-AB84-E40843ED6975}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>soal:</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Perpustakaan adalah tempat membaca buku</t>
   </si>
   <si>
-    <t>jaccard</t>
-  </si>
-  <si>
     <t>irisan</t>
   </si>
   <si>
@@ -122,6 +119,24 @@
   </si>
   <si>
     <t>doc3</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>perhitungan jaccard 2</t>
+  </si>
+  <si>
+    <t>perhitungan jaccard 1</t>
+  </si>
+  <si>
+    <t>doc 2</t>
   </si>
 </sst>
 </file>
@@ -137,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -247,11 +268,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -261,14 +284,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B6D021-1C09-4BE8-AD98-FCEC777B8457}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +619,7 @@
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -613,17 +635,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -631,70 +653,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
         <v>2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11">
@@ -714,11 +748,11 @@
         <f>LOG(H11)+1</f>
         <v>1.1249387366082999</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="3">
         <f>C11*I11</f>
         <v>1.1249387366082999</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="2">
         <f>D11*I11</f>
         <v>1.1249387366082999</v>
       </c>
@@ -730,12 +764,20 @@
         <f>F11*I11</f>
         <v>1.1249387366082999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f>MIN(J11,K11)</f>
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="Q11">
+        <f>MAX(J11:K11)</f>
+        <v>1.1249387366082999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12">
@@ -758,7 +800,7 @@
         <f t="shared" ref="I12:I17" si="1">LOG(H12)+1</f>
         <v>1.6020599913279625</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="3">
         <f t="shared" ref="J12:J15" si="2">C12*I12</f>
         <v>1.6020599913279625</v>
       </c>
@@ -774,15 +816,23 @@
         <f t="shared" ref="M12:M17" si="5">F12*I12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f>MIN(J12,K12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>MAX(J12:K12)</f>
+        <v>1.6020599913279625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13">
@@ -802,11 +852,11 @@
         <f t="shared" si="1"/>
         <v>1.3010299956639813</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="3">
         <f t="shared" si="2"/>
         <v>1.3010299956639813</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
         <v>1.3010299956639813</v>
       </c>
@@ -818,15 +868,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <f>MIN(J13,K13)</f>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="Q13">
+        <f>MAX(J13:K13)</f>
+        <v>1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14">
@@ -846,11 +904,11 @@
         <f t="shared" si="1"/>
         <v>1.1249387366082999</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="3">
         <f t="shared" si="2"/>
         <v>1.1249387366082999</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="2">
         <f t="shared" si="3"/>
         <v>1.1249387366082999</v>
       </c>
@@ -862,15 +920,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <f>MIN(J14,K14)</f>
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="Q14">
+        <f>MAX(J14:K14)</f>
+        <v>1.1249387366082999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15">
@@ -890,11 +956,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -906,8 +972,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f>MIN(J15,K15)</f>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f>MAX(J15:K15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -950,8 +1024,19 @@
         <f t="shared" si="5"/>
         <v>1.6020599913279625</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16">
+        <f>SUM(P11:P15)</f>
+        <v>4.5509074688805811</v>
+      </c>
+      <c r="Q16">
+        <f>SUM(Q11:Q15)</f>
+        <v>6.1529674602085436</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -994,8 +1079,15 @@
         <f t="shared" si="5"/>
         <v>1.6020599913279625</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17">
+        <f>P16/Q16</f>
+        <v>0.73962807349648108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K18">
         <f>SUM(K11:K15)</f>
         <v>4.5509074688805811</v>
@@ -1009,105 +1101,176 @@
         <v>2.1249387366082999</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>SUM(B11:B17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21">
+        <f>MIN(J11,L11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f>MAX(J11,L11)</f>
+        <v>1.1249387366082999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P25" si="8">MIN(J12,L12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22:Q25" si="9">MAX(J12,L12)</f>
+        <v>1.6020599913279625</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>23</v>
       </c>
       <c r="C23">
         <f>K11+K13+K14+K15</f>
         <v>4.5509074688805811</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <f>SUM(L14,L15)</f>
         <v>2.1249387366082999</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23">
         <f>M11+M15</f>
         <v>2.1249387366082999</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="9"/>
+        <v>1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <f>SUM(J11:J15,K15,K14,K13,K11)-C23</f>
         <v>6.1529674602085436</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24">
         <f>SUM(J11:J15,L14,L15)-F23</f>
         <v>6.1529674602085436</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24">
         <f>SUM(J11:J15,M11,M15)-I23</f>
         <v>6.1529674602085436</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="9"/>
+        <v>1.1249387366082999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <f>C23/C24</f>
         <v>0.73962807349648108</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25">
         <f>F23/F24</f>
         <v>0.34535185670172208</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25">
         <f>I23/I24</f>
         <v>0.34535185670172208</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <f>SUM(P21:P25)</f>
+        <v>2.1249387366082999</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(Q21:Q25)</f>
+        <v>6.1529674602085436</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27">
+        <f>P26/Q26</f>
+        <v>0.34535185670172208</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <f>SUM(D11,D13,D14,D15)</f>
@@ -1118,9 +1281,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <f>SUM(C11:C15,D11,D13,D14,D15)-C28</f>
@@ -1131,9 +1294,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <f>C28/C29</f>

--- a/manual.xlsx
+++ b/manual.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\skripsi\project\metode-tfidf-jaccard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166BD9A2-E6DE-4F8A-8E2F-738948D53163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016CDB26-3AED-4CED-AF41-9FE82D35A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FC24E5C5-88E4-4DC3-AB84-E40843ED6975}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{34787733-B6EE-485B-B51E-051E1C7897A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="perhitungan-cara-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>soal:</t>
   </si>
@@ -46,21 +45,48 @@
     <t>Kunci:</t>
   </si>
   <si>
-    <t>Ada banyak sekali buku di perpustakaan</t>
-  </si>
-  <si>
-    <t>perpustakaan tempat nyaman buat belajar</t>
-  </si>
-  <si>
-    <t>siswa</t>
-  </si>
-  <si>
-    <t>tempat paling enak buat membaca dan banyak buku</t>
+    <t>Ada banyak buku di perpustakaan</t>
+  </si>
+  <si>
+    <t>Perpustakaan tempat sumber ilmu</t>
+  </si>
+  <si>
+    <t>Tempat membaca buku.</t>
+  </si>
+  <si>
+    <t>Siswa:</t>
+  </si>
+  <si>
+    <t>tempat membaca dan banyak sekali buku</t>
   </si>
   <si>
     <t>token</t>
   </si>
   <si>
+    <t>jabsis</t>
+  </si>
+  <si>
+    <t>tempat</t>
+  </si>
+  <si>
+    <t>baca</t>
+  </si>
+  <si>
+    <t>buku</t>
+  </si>
+  <si>
+    <t>pustaka</t>
+  </si>
+  <si>
+    <t>sumber</t>
+  </si>
+  <si>
+    <t>ilmu</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
     <t>df</t>
   </si>
   <si>
@@ -70,37 +96,10 @@
     <t>IDF ( log(D/df)</t>
   </si>
   <si>
-    <t>jabsis</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>tempat</t>
-  </si>
-  <si>
-    <t>enak</t>
-  </si>
-  <si>
-    <t>baca</t>
-  </si>
-  <si>
-    <t>buku</t>
-  </si>
-  <si>
-    <t>pustaka</t>
-  </si>
-  <si>
-    <t>nyaman</t>
-  </si>
-  <si>
-    <t>ajar</t>
-  </si>
-  <si>
-    <t>tf</t>
-  </si>
-  <si>
-    <t>Perpustakaan adalah tempat membaca buku</t>
+    <t>perhitungan jaccard 1</t>
+  </si>
+  <si>
+    <t>doc 1</t>
   </si>
   <si>
     <t>irisan</t>
@@ -112,13 +111,16 @@
     <t>hasil</t>
   </si>
   <si>
-    <t>doc 1</t>
-  </si>
-  <si>
-    <t>doc2</t>
-  </si>
-  <si>
-    <t>doc3</t>
+    <t>doc 2</t>
+  </si>
+  <si>
+    <t>doc 3</t>
+  </si>
+  <si>
+    <t>rumus 1</t>
+  </si>
+  <si>
+    <t>rumus 2</t>
   </si>
   <si>
     <t>min</t>
@@ -130,20 +132,14 @@
     <t>tot</t>
   </si>
   <si>
-    <t>perhitungan jaccard 2</t>
-  </si>
-  <si>
-    <t>perhitungan jaccard 1</t>
-  </si>
-  <si>
-    <t>doc 2</t>
+    <t>w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +147,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,19 +164,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,32 +202,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -259,6 +230,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -270,18 +267,10 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -290,7 +279,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,131 +601,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B6D021-1C09-4BE8-AD98-FCEC777B8457}">
-  <dimension ref="A1:Q30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD9ACDF-5BE4-41A5-9856-298DFB5FA591}">
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="17" max="17" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="O7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7" t="s">
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="9">
         <v>3</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="J10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
         <v>2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="9">
         <v>3</v>
       </c>
-      <c r="O10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="O10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10">
+        <f>SUM(K11:K13)</f>
+        <v>3.5509074688805811</v>
+      </c>
+      <c r="S10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
@@ -748,11 +766,11 @@
         <f>LOG(H11)+1</f>
         <v>1.1249387366082999</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f>C11*I11</f>
         <v>1.1249387366082999</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <f>D11*I11</f>
         <v>1.1249387366082999</v>
       </c>
@@ -760,28 +778,35 @@
         <f>E11*I11</f>
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <f>F11*I11</f>
         <v>1.1249387366082999</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="P11">
-        <f>MIN(J11,K11)</f>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="Q11">
-        <f>MAX(J11:K11)</f>
-        <v>1.1249387366082999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SUM(J11:J13,K11,K12,K13)-P10</f>
+        <v>3.5509074688805811</v>
+      </c>
+      <c r="S11">
+        <f>MIN(J11:K11)</f>
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="T11">
+        <f>MAX(J11,K11)</f>
+        <v>1.1249387366082999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -790,200 +815,217 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H17" si="0">4/G12</f>
-        <v>4</v>
+        <f t="shared" ref="H12:H16" si="0">4/G12</f>
+        <v>2</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I17" si="1">LOG(H12)+1</f>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" ref="J12:J15" si="2">C12*I12</f>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ref="K12:K17" si="3">D12*I12</f>
-        <v>0</v>
+        <f t="shared" ref="I12:I16" si="1">LOG(H12)+1</f>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12:J16" si="2">C12*I12</f>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" ref="K12:K16" si="3">D12*I12</f>
+        <v>1.3010299956639813</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:L17" si="4">E12*I12</f>
+        <f t="shared" ref="L12:L16" si="4">E12*I12</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M17" si="5">F12*I12</f>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f>MIN(J12,K12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f>MAX(J12:K12)</f>
-        <v>1.6020599913279625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M12:M16" si="5">F12*I12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2">
+        <f>P10/P11</f>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S16" si="6">MIN(J12:K12)</f>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12:T16" si="7">MAX(J12,K12)</f>
+        <v>1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="J13" s="3">
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="K13" s="2">
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="3"/>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="L13">
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="L13" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.1249387366082999</v>
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P13">
-        <f>MIN(J13,K13)</f>
-        <v>1.3010299956639813</v>
-      </c>
-      <c r="Q13">
-        <f>MAX(J13:K13)</f>
-        <v>1.3010299956639813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>1.1249387366082999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="J14" s="3">
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="2"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="3"/>
-        <v>1.1249387366082999</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>1.1249387366082999</v>
+        <v>1.3010299956639813</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f>MIN(J14,K14)</f>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="Q14">
-        <f>MAX(J14:K14)</f>
-        <v>1.1249387366082999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
+        <v>1.6020599913279625</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.6020599913279625</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="P15">
-        <f>MIN(J15,K15)</f>
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <f>MAX(J15:K15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <f>SUM(L13)</f>
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1009,7 +1051,7 @@
         <v>1.6020599913279625</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J17" si="6">C16*I16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16">
@@ -1024,315 +1066,278 @@
         <f t="shared" si="5"/>
         <v>1.6020599913279625</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16">
+        <f>SUM(L13,J11,J13,J12)-P15</f>
+        <v>3.5509074688805811</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="2">
+        <f>P15/P16</f>
+        <v>0.31680316833570865</v>
+      </c>
+      <c r="R17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17">
+        <f>SUM(S11:S16)</f>
+        <v>3.5509074688805811</v>
+      </c>
+      <c r="T17">
+        <f>SUM(T11:T16)</f>
+        <v>3.5509074688805811</v>
+      </c>
+    </row>
+    <row r="18" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18">
+        <f>S17/T17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20">
+        <f>M11</f>
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="R20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21">
+        <f>SUM(M11,J11:J13)-P20</f>
+        <v>3.5509074688805811</v>
+      </c>
+      <c r="S21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" t="s">
         <v>30</v>
       </c>
-      <c r="P16">
-        <f>SUM(P11:P15)</f>
-        <v>4.5509074688805811</v>
-      </c>
-      <c r="Q16">
-        <f>SUM(Q11:Q15)</f>
-        <v>6.1529674602085436</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="5"/>
-        <v>1.6020599913279625</v>
-      </c>
-      <c r="O17" t="s">
+    </row>
+    <row r="22" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P17">
-        <f>P16/Q16</f>
-        <v>0.73962807349648108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K18">
-        <f>SUM(K11:K15)</f>
-        <v>4.5509074688805811</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ref="L18:M18" si="7">SUM(L11:L15)</f>
-        <v>2.1249387366082999</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="7"/>
-        <v>2.1249387366082999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f>SUM(B11:B17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O20" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21">
+      <c r="P22" s="2">
+        <f>P20/P21</f>
+        <v>0.31680316833570865</v>
+      </c>
+      <c r="S22">
         <f>MIN(J11,L11)</f>
         <v>0</v>
       </c>
-      <c r="Q21">
+      <c r="T22">
         <f>MAX(J11,L11)</f>
         <v>1.1249387366082999</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P22">
-        <f t="shared" ref="P22:P25" si="8">MIN(J12,L12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" ref="Q22:Q25" si="9">MAX(J12,L12)</f>
-        <v>1.6020599913279625</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <f>K11+K13+K14+K15</f>
-        <v>4.5509074688805811</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23">
-        <f>SUM(L14,L15)</f>
-        <v>2.1249387366082999</v>
-      </c>
-      <c r="H23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23">
-        <f>M11+M15</f>
-        <v>2.1249387366082999</v>
-      </c>
-      <c r="P23">
+    <row r="23" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <f t="shared" ref="S23:S27" si="8">MIN(J12,L12)</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ref="T23:T27" si="9">MAX(J12,L12)</f>
+        <v>1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="24" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="S24">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q23">
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>1.1249387366082999</v>
+      </c>
+    </row>
+    <row r="25" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="9"/>
         <v>1.3010299956639813</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <f>SUM(J11:J15,K15,K14,K13,K11)-C23</f>
-        <v>6.1529674602085436</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <f>SUM(J11:J15,L14,L15)-F23</f>
-        <v>6.1529674602085436</v>
-      </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24">
-        <f>SUM(J11:J15,M11,M15)-I23</f>
-        <v>6.1529674602085436</v>
-      </c>
-      <c r="P24">
+    <row r="26" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="S26">
         <f t="shared" si="8"/>
-        <v>1.1249387366082999</v>
-      </c>
-      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="9"/>
-        <v>1.1249387366082999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28">
+        <f>SUM(S22:S27)</f>
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="T28">
+        <f>SUM(T22:T27)</f>
+        <v>4.8519374645445623</v>
+      </c>
+    </row>
+    <row r="29" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
-        <f>C23/C24</f>
-        <v>0.73962807349648108</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="S29">
+        <f>S28/T28</f>
+        <v>0.23185351106207935</v>
+      </c>
+    </row>
+    <row r="31" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <f>MIN(J11,M11)</f>
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="T33">
+        <f>MAX(J11,M11)</f>
+        <v>1.1249387366082999</v>
+      </c>
+    </row>
+    <row r="34" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <f t="shared" ref="S34:S38" si="10">MIN(J12,M12)</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34:T38" si="11">MAX(J12,M12)</f>
+        <v>1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="35" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="11"/>
+        <v>1.1249387366082999</v>
+      </c>
+    </row>
+    <row r="36" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="11"/>
+        <v>1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="37" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="11"/>
+        <v>1.6020599913279625</v>
+      </c>
+    </row>
+    <row r="38" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="11"/>
+        <v>1.6020599913279625</v>
+      </c>
+    </row>
+    <row r="39" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39">
+        <f>SUM(S33:S38)</f>
+        <v>1.1249387366082999</v>
+      </c>
+      <c r="T39">
+        <f>SUM(T33:T38)</f>
+        <v>8.0560574472004873</v>
+      </c>
+    </row>
+    <row r="40" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
         <v>24</v>
       </c>
-      <c r="F25">
-        <f>F23/F24</f>
-        <v>0.34535185670172208</v>
-      </c>
-      <c r="H25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25">
-        <f>I23/I24</f>
-        <v>0.34535185670172208</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O26" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26">
-        <f>SUM(P21:P25)</f>
-        <v>2.1249387366082999</v>
-      </c>
-      <c r="Q26">
-        <f>SUM(Q21:Q25)</f>
-        <v>6.1529674602085436</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="O27" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27">
-        <f>P26/Q26</f>
-        <v>0.34535185670172208</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <f>SUM(D11,D13,D14,D15)</f>
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <f>SUM(C11,C12,C13,C14,C15,D15,D14,D13,D11)-E27</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <f>SUM(C11:C15,D11,D13,D14,D15)-C28</f>
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <f>E27/E28</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30">
-        <f>C28/C29</f>
-        <v>0.8</v>
+      <c r="S40">
+        <f>S39/T39</f>
+        <v>0.13963886727238031</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6C01BE-6AC6-48A9-AF03-7CD9820F1055}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f>LOG(3/1)</f>
-        <v>0.47712125471966244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>